--- a/系统列表(大玩法).xlsx
+++ b/系统列表(大玩法).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="191">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -681,6 +681,62 @@
   </si>
   <si>
     <t>系统设置,什么声音之类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sys027</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音律</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己玩增加魅力,和别人增加好友度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>策划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文鸯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>责任人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诸曹/文鸯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -704,12 +760,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -724,8 +792,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1061,15 +1131,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E70"/>
+  <dimension ref="A1:O71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="13" max="13" width="9.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1082,8 +1155,11 @@
       <c r="E1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="L1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1096,8 +1172,20 @@
       <c r="E2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="L2" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="M2" t="s">
+        <v>180</v>
+      </c>
+      <c r="N2" t="s">
+        <v>181</v>
+      </c>
+      <c r="O2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>158</v>
       </c>
@@ -1110,8 +1198,17 @@
       <c r="E3" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="L3" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="M3" t="s">
+        <v>183</v>
+      </c>
+      <c r="N3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>158</v>
       </c>
@@ -1124,8 +1221,17 @@
       <c r="E4" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="L4" t="s">
+        <v>187</v>
+      </c>
+      <c r="M4" t="s">
+        <v>183</v>
+      </c>
+      <c r="N4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>158</v>
       </c>
@@ -1138,8 +1244,17 @@
       <c r="E5" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="L5" t="s">
+        <v>188</v>
+      </c>
+      <c r="M5" t="s">
+        <v>183</v>
+      </c>
+      <c r="N5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>158</v>
       </c>
@@ -1152,8 +1267,17 @@
       <c r="E6" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="L6" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="M6" t="s">
+        <v>183</v>
+      </c>
+      <c r="N6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>158</v>
       </c>
@@ -1166,8 +1290,17 @@
       <c r="E7" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="L7" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="M7" t="s">
+        <v>190</v>
+      </c>
+      <c r="N7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>158</v>
       </c>
@@ -1180,8 +1313,19 @@
       <c r="E8" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="L8" t="s">
+        <v>186</v>
+      </c>
+      <c r="N8" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="N9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -1194,8 +1338,14 @@
       <c r="E10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="L10" t="s">
+        <v>186</v>
+      </c>
+      <c r="N10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1208,8 +1358,22 @@
       <c r="E11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="L11" t="s">
+        <v>186</v>
+      </c>
+      <c r="N11" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="L12" t="s">
+        <v>186</v>
+      </c>
+      <c r="N12" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1222,8 +1386,14 @@
       <c r="E13" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="L13" t="s">
+        <v>186</v>
+      </c>
+      <c r="N13" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -1236,8 +1406,14 @@
       <c r="E14" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="L14" t="s">
+        <v>186</v>
+      </c>
+      <c r="N14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1250,8 +1426,14 @@
       <c r="E15" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="L15" t="s">
+        <v>186</v>
+      </c>
+      <c r="N15" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -1264,8 +1446,14 @@
       <c r="E16" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="L16" t="s">
+        <v>186</v>
+      </c>
+      <c r="N16" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -1278,8 +1466,14 @@
       <c r="E17" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="L17" t="s">
+        <v>186</v>
+      </c>
+      <c r="N17" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -1292,8 +1486,14 @@
       <c r="E18" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="L18" t="s">
+        <v>186</v>
+      </c>
+      <c r="N18" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -1306,568 +1506,888 @@
       <c r="E19" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="L19" t="s">
+        <v>186</v>
+      </c>
+      <c r="N19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>177</v>
+      </c>
+      <c r="C20" t="s">
+        <v>178</v>
+      </c>
+      <c r="E20" t="s">
+        <v>179</v>
+      </c>
+      <c r="L20" t="s">
+        <v>186</v>
+      </c>
+      <c r="N20" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="L21" t="s">
+        <v>186</v>
+      </c>
+      <c r="N21" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>46</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E22" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+      <c r="L22" t="s">
+        <v>186</v>
+      </c>
+      <c r="N22" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>46</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+      <c r="L23" t="s">
+        <v>186</v>
+      </c>
+      <c r="N23" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>46</v>
       </c>
       <c r="B24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" t="s">
+        <v>51</v>
+      </c>
+      <c r="L24" t="s">
+        <v>186</v>
+      </c>
+      <c r="N24" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" t="s">
         <v>109</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>65</v>
-      </c>
-      <c r="B26" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" t="s">
-        <v>59</v>
-      </c>
-      <c r="E26" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="L25" t="s">
+        <v>186</v>
+      </c>
+      <c r="N25" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="L26" t="s">
+        <v>186</v>
+      </c>
+      <c r="N26" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>65</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="C27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E27" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+      <c r="L27" t="s">
+        <v>186</v>
+      </c>
+      <c r="N27" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>65</v>
       </c>
       <c r="B28" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="C28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E28" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+        <v>66</v>
+      </c>
+      <c r="L28" t="s">
+        <v>186</v>
+      </c>
+      <c r="N28" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>65</v>
       </c>
       <c r="B29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E29" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+        <v>67</v>
+      </c>
+      <c r="L29" t="s">
+        <v>186</v>
+      </c>
+      <c r="N29" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>65</v>
       </c>
       <c r="B30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" t="s">
+        <v>64</v>
+      </c>
+      <c r="L30" t="s">
+        <v>186</v>
+      </c>
+      <c r="N30" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" t="s">
         <v>36</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>63</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E31" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
-        <v>72</v>
-      </c>
-      <c r="B32" t="s">
-        <v>89</v>
-      </c>
-      <c r="C32" t="s">
-        <v>73</v>
-      </c>
-      <c r="E32" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="L31" t="s">
+        <v>186</v>
+      </c>
+      <c r="N31" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="L32" t="s">
+        <v>186</v>
+      </c>
+      <c r="N32" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>72</v>
       </c>
       <c r="B33" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="C33" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E33" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+        <v>85</v>
+      </c>
+      <c r="L33" t="s">
+        <v>186</v>
+      </c>
+      <c r="N33" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>72</v>
       </c>
       <c r="B34" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="C34" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E34" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+      <c r="L34" t="s">
+        <v>186</v>
+      </c>
+      <c r="N34" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>72</v>
       </c>
       <c r="B35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C35" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+        <v>78</v>
+      </c>
+      <c r="L35" t="s">
+        <v>186</v>
+      </c>
+      <c r="N35" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>72</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="C36" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="E36" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+        <v>84</v>
+      </c>
+      <c r="L36" t="s">
+        <v>186</v>
+      </c>
+      <c r="N36" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>72</v>
       </c>
       <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37" t="s">
+        <v>79</v>
+      </c>
+      <c r="L37" t="s">
+        <v>186</v>
+      </c>
+      <c r="N37" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" t="s">
         <v>82</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C38" t="s">
         <v>83</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E38" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
-        <v>87</v>
-      </c>
-      <c r="B39" t="s">
-        <v>88</v>
-      </c>
-      <c r="C39" t="s">
-        <v>90</v>
-      </c>
-      <c r="E39" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="L38" t="s">
+        <v>186</v>
+      </c>
+      <c r="N38" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="L39" t="s">
+        <v>186</v>
+      </c>
+      <c r="N39" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>87</v>
       </c>
       <c r="B40" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="C40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E40" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+        <v>93</v>
+      </c>
+      <c r="L40" t="s">
+        <v>186</v>
+      </c>
+      <c r="N40" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>87</v>
       </c>
       <c r="B41" t="s">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="C41" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+        <v>92</v>
+      </c>
+      <c r="L41" t="s">
+        <v>186</v>
+      </c>
+      <c r="N41" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>87</v>
       </c>
       <c r="B42" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+        <v>94</v>
+      </c>
+      <c r="C42" t="s">
+        <v>42</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="L42" t="s">
+        <v>186</v>
+      </c>
+      <c r="N42" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>87</v>
       </c>
       <c r="B43" t="s">
+        <v>95</v>
+      </c>
+      <c r="L43" t="s">
+        <v>186</v>
+      </c>
+      <c r="N43" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>87</v>
+      </c>
+      <c r="B44" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A45" t="s">
-        <v>96</v>
-      </c>
-      <c r="B45" t="s">
-        <v>97</v>
-      </c>
-      <c r="C45" t="s">
-        <v>98</v>
-      </c>
-      <c r="E45" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="L44" t="s">
+        <v>186</v>
+      </c>
+      <c r="N44" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>96</v>
       </c>
       <c r="B46" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="C46" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E46" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+        <v>99</v>
+      </c>
+      <c r="L46" t="s">
+        <v>186</v>
+      </c>
+      <c r="N46" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>96</v>
       </c>
       <c r="B47" t="s">
-        <v>102</v>
+        <v>22</v>
       </c>
       <c r="C47" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E47" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+      <c r="L47" t="s">
+        <v>186</v>
+      </c>
+      <c r="N47" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>96</v>
       </c>
       <c r="B48" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C48" t="s">
-        <v>148</v>
+        <v>104</v>
       </c>
       <c r="E48" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+        <v>105</v>
+      </c>
+      <c r="L48" t="s">
+        <v>186</v>
+      </c>
+      <c r="N48" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>96</v>
       </c>
       <c r="B49" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49" t="s">
+        <v>148</v>
+      </c>
+      <c r="E49" t="s">
+        <v>149</v>
+      </c>
+      <c r="L49" t="s">
+        <v>186</v>
+      </c>
+      <c r="N49" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>96</v>
+      </c>
+      <c r="B50" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A51" t="s">
-        <v>111</v>
-      </c>
-      <c r="B51" t="s">
-        <v>112</v>
-      </c>
-      <c r="C51" t="s">
-        <v>110</v>
-      </c>
-      <c r="E51" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="L50" t="s">
+        <v>186</v>
+      </c>
+      <c r="N50" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>111</v>
       </c>
       <c r="B52" t="s">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="C52" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E52" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+        <v>117</v>
+      </c>
+      <c r="L52" t="s">
+        <v>186</v>
+      </c>
+      <c r="N52" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>111</v>
       </c>
       <c r="B53" t="s">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="C53" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E53" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+        <v>153</v>
+      </c>
+      <c r="L53" t="s">
+        <v>186</v>
+      </c>
+      <c r="N53" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>111</v>
       </c>
       <c r="B54" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C54" t="s">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="E54" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+        <v>118</v>
+      </c>
+      <c r="L54" t="s">
+        <v>186</v>
+      </c>
+      <c r="N54" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>111</v>
       </c>
       <c r="B55" t="s">
+        <v>115</v>
+      </c>
+      <c r="C55" t="s">
+        <v>150</v>
+      </c>
+      <c r="E55" t="s">
+        <v>151</v>
+      </c>
+      <c r="L55" t="s">
+        <v>186</v>
+      </c>
+      <c r="N55" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>111</v>
+      </c>
+      <c r="B56" t="s">
         <v>154</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C56" t="s">
         <v>155</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E56" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A57" t="s">
-        <v>123</v>
-      </c>
-      <c r="B57" t="s">
-        <v>124</v>
-      </c>
-      <c r="C57" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="L56" t="s">
+        <v>186</v>
+      </c>
+      <c r="N56" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="L57" t="s">
+        <v>186</v>
+      </c>
+      <c r="N57" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>123</v>
       </c>
       <c r="B58" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C58" t="s">
-        <v>119</v>
-      </c>
-      <c r="E58" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+        <v>134</v>
+      </c>
+      <c r="L58" t="s">
+        <v>186</v>
+      </c>
+      <c r="N58" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>123</v>
       </c>
       <c r="B59" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C59" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E59" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+        <v>120</v>
+      </c>
+      <c r="L59" t="s">
+        <v>186</v>
+      </c>
+      <c r="N59" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>123</v>
       </c>
       <c r="B60" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C60" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E60" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+        <v>129</v>
+      </c>
+      <c r="L60" t="s">
+        <v>186</v>
+      </c>
+      <c r="N60" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>123</v>
       </c>
       <c r="B61" t="s">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="C61" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+        <v>122</v>
+      </c>
+      <c r="E61" t="s">
+        <v>130</v>
+      </c>
+      <c r="L61" t="s">
+        <v>186</v>
+      </c>
+      <c r="N61" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>123</v>
       </c>
       <c r="B62" t="s">
+        <v>40</v>
+      </c>
+      <c r="C62" t="s">
+        <v>107</v>
+      </c>
+      <c r="L62" t="s">
+        <v>186</v>
+      </c>
+      <c r="N62" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>123</v>
+      </c>
+      <c r="B63" t="s">
         <v>128</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C63" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A64" t="s">
-        <v>131</v>
-      </c>
-      <c r="B64" t="s">
-        <v>132</v>
-      </c>
-      <c r="C64" t="s">
-        <v>133</v>
-      </c>
-      <c r="E64" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="L63" t="s">
+        <v>186</v>
+      </c>
+      <c r="N63" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>131</v>
       </c>
       <c r="B65" t="s">
-        <v>24</v>
+        <v>132</v>
       </c>
       <c r="C65" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E65" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+        <v>152</v>
+      </c>
+      <c r="L65" t="s">
+        <v>186</v>
+      </c>
+      <c r="N65" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>131</v>
       </c>
       <c r="B66" t="s">
-        <v>135</v>
+        <v>24</v>
       </c>
       <c r="C66" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E66" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
+        <v>140</v>
+      </c>
+      <c r="L66" t="s">
+        <v>186</v>
+      </c>
+      <c r="N66" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>131</v>
       </c>
       <c r="B67" t="s">
+        <v>135</v>
+      </c>
+      <c r="C67" t="s">
+        <v>138</v>
+      </c>
+      <c r="E67" t="s">
+        <v>141</v>
+      </c>
+      <c r="L67" t="s">
+        <v>186</v>
+      </c>
+      <c r="N67" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>131</v>
+      </c>
+      <c r="B68" t="s">
         <v>136</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C68" t="s">
         <v>139</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E68" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A69" t="s">
-        <v>144</v>
-      </c>
-      <c r="B69" t="s">
-        <v>145</v>
-      </c>
-      <c r="C69" t="s">
-        <v>142</v>
-      </c>
-      <c r="E69" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="L68" t="s">
+        <v>186</v>
+      </c>
+      <c r="N68" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="L69" t="s">
+        <v>186</v>
+      </c>
+      <c r="N69" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>144</v>
       </c>
       <c r="B70" t="s">
+        <v>145</v>
+      </c>
+      <c r="C70" t="s">
+        <v>142</v>
+      </c>
+      <c r="E70" t="s">
+        <v>143</v>
+      </c>
+      <c r="L70" t="s">
+        <v>186</v>
+      </c>
+      <c r="N70" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
+        <v>144</v>
+      </c>
+      <c r="B71" t="s">
         <v>146</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A45:B45">
+  <conditionalFormatting sqref="A46:B46">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B64:B67 B51:B62">
+  <conditionalFormatting sqref="B65:B68 B52:B63">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B69:B70">
+  <conditionalFormatting sqref="B70:B71">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
